--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N2">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q2">
-        <v>339.5256107289013</v>
+        <v>182.3089314881483</v>
       </c>
       <c r="R2">
-        <v>3055.730496560112</v>
+        <v>1640.780383393335</v>
       </c>
       <c r="S2">
-        <v>0.3767254733785446</v>
+        <v>0.382232162646464</v>
       </c>
       <c r="T2">
-        <v>0.4558124866544165</v>
+        <v>0.4533038254420194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H3">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I3">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J3">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q3">
-        <v>15.27923632000267</v>
+        <v>10.48108793366778</v>
       </c>
       <c r="R3">
-        <v>137.513126880024</v>
+        <v>94.32979140300999</v>
       </c>
       <c r="S3">
-        <v>0.01695329410691104</v>
+        <v>0.02197483620287704</v>
       </c>
       <c r="T3">
-        <v>0.02051234569978216</v>
+        <v>0.02606080358402329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H4">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I4">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J4">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N4">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q4">
-        <v>10.24061085066133</v>
+        <v>16.58725343809722</v>
       </c>
       <c r="R4">
-        <v>92.165497655952</v>
+        <v>149.285280942875</v>
       </c>
       <c r="S4">
-        <v>0.01136261550967724</v>
+        <v>0.0347771318840792</v>
       </c>
       <c r="T4">
-        <v>0.01374800059023296</v>
+        <v>0.04124353851283782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H5">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I5">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J5">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N5">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q5">
-        <v>392.132890236934</v>
+        <v>167.6765383081425</v>
       </c>
       <c r="R5">
-        <v>2352.797341421604</v>
+        <v>1006.059229848855</v>
       </c>
       <c r="S5">
-        <v>0.4350966290426908</v>
+        <v>0.3515536257024274</v>
       </c>
       <c r="T5">
-        <v>0.3509584395595551</v>
+        <v>0.2779473122225958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H6">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I6">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J6">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N6">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q6">
-        <v>26.83625488592533</v>
+        <v>7.529996609918888</v>
       </c>
       <c r="R6">
-        <v>241.526293973328</v>
+        <v>67.76996948927</v>
       </c>
       <c r="S6">
-        <v>0.02977654853165078</v>
+        <v>0.01578752541324037</v>
       </c>
       <c r="T6">
-        <v>0.03602762114405678</v>
+        <v>0.0187230337042679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J7">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N7">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O7">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P7">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q7">
-        <v>41.23419946313156</v>
+        <v>32.27663547657534</v>
       </c>
       <c r="R7">
-        <v>371.107795168184</v>
+        <v>290.489719289178</v>
       </c>
       <c r="S7">
-        <v>0.04575199284314629</v>
+        <v>0.06767177055154315</v>
       </c>
       <c r="T7">
-        <v>0.05535683435527745</v>
+        <v>0.08025455590408276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J8">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P8">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q8">
         <v>1.855609880829778</v>
@@ -948,10 +948,10 @@
         <v>16.700488927468</v>
       </c>
       <c r="S8">
-        <v>0.002058918351581062</v>
+        <v>0.003890504826000926</v>
       </c>
       <c r="T8">
-        <v>0.002491152735800171</v>
+        <v>0.004613899333631002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J9">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N9">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O9">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P9">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q9">
-        <v>1.243686417451556</v>
+        <v>2.936667602672222</v>
       </c>
       <c r="R9">
-        <v>11.193177757064</v>
+        <v>26.43000842405</v>
       </c>
       <c r="S9">
-        <v>0.001379949964136892</v>
+        <v>0.006157069758352358</v>
       </c>
       <c r="T9">
-        <v>0.001669646650041829</v>
+        <v>0.007301905877439153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>7.449742</v>
       </c>
       <c r="I10">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J10">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N10">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O10">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P10">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q10">
-        <v>47.62316980262967</v>
+        <v>29.686063435119</v>
       </c>
       <c r="R10">
-        <v>285.739018815778</v>
+        <v>178.116380610714</v>
       </c>
       <c r="S10">
-        <v>0.052840965808637</v>
+        <v>0.06224033092971808</v>
       </c>
       <c r="T10">
-        <v>0.04262267658984655</v>
+        <v>0.04920880181279436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>7.449742</v>
       </c>
       <c r="I11">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J11">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N11">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O11">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P11">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q11">
-        <v>3.259169417099555</v>
+        <v>1.333137952892889</v>
       </c>
       <c r="R11">
-        <v>29.332524753896</v>
+        <v>11.998241576036</v>
       </c>
       <c r="S11">
-        <v>0.003616257809953748</v>
+        <v>0.002795080848101263</v>
       </c>
       <c r="T11">
-        <v>0.004375428743790248</v>
+        <v>0.003314793899319052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H12">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I12">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J12">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N12">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O12">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P12">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q12">
-        <v>9.537842150556667</v>
+        <v>2.422356565935333</v>
       </c>
       <c r="R12">
-        <v>57.22705290334</v>
+        <v>21.801209093418</v>
       </c>
       <c r="S12">
-        <v>0.01058284849694974</v>
+        <v>0.005078756050734224</v>
       </c>
       <c r="T12">
-        <v>0.008536356631299574</v>
+        <v>0.006023092170854304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H13">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I13">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J13">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P13">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q13">
-        <v>0.4292192977383333</v>
+        <v>0.1392632383231111</v>
       </c>
       <c r="R13">
-        <v>2.57531578643</v>
+        <v>1.253369144908</v>
       </c>
       <c r="S13">
-        <v>0.0004762463802849614</v>
+        <v>0.0002919817933596586</v>
       </c>
       <c r="T13">
-        <v>0.0003841507272498238</v>
+        <v>0.0003462724407411372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H14">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I14">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J14">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N14">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O14">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P14">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q14">
-        <v>0.2876758828566667</v>
+        <v>0.2203964553388889</v>
       </c>
       <c r="R14">
-        <v>1.72605529714</v>
+        <v>1.98356809805</v>
       </c>
       <c r="S14">
-        <v>0.0003191948699130736</v>
+        <v>0.0004620871455728695</v>
       </c>
       <c r="T14">
-        <v>0.0002574695503998397</v>
+        <v>0.0005480069215669463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H15">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I15">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J15">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N15">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O15">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P15">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q15">
-        <v>11.01566860035125</v>
+        <v>2.227934529639</v>
       </c>
       <c r="R15">
-        <v>44.062674401405</v>
+        <v>13.367607177834</v>
       </c>
       <c r="S15">
-        <v>0.01222259186616123</v>
+        <v>0.004671127336150331</v>
       </c>
       <c r="T15">
-        <v>0.006572672953376475</v>
+        <v>0.003693113065007749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H16">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I16">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J16">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N16">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O16">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P16">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q16">
-        <v>0.7538752745766666</v>
+        <v>0.1000517998795556</v>
       </c>
       <c r="R16">
-        <v>4.52325164746</v>
+        <v>0.900466198916</v>
       </c>
       <c r="S16">
-        <v>0.0008364730397614741</v>
+        <v>0.0002097703910195967</v>
       </c>
       <c r="T16">
-        <v>0.0006747174148745712</v>
+        <v>0.0002487747761864881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.398791</v>
+      </c>
+      <c r="I17">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J17">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.997753</v>
+      </c>
+      <c r="N17">
+        <v>38.993259</v>
+      </c>
+      <c r="O17">
+        <v>0.4740421406233454</v>
+      </c>
+      <c r="P17">
+        <v>0.5546503645614554</v>
+      </c>
+      <c r="Q17">
+        <v>9.090569958311502</v>
+      </c>
+      <c r="R17">
+        <v>54.54341974986901</v>
+      </c>
+      <c r="S17">
+        <v>0.01905945137460403</v>
+      </c>
+      <c r="T17">
+        <v>0.01506889104449897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.398791</v>
+      </c>
+      <c r="I18">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J18">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.241754</v>
+      </c>
+      <c r="O18">
+        <v>0.02725306609819269</v>
+      </c>
+      <c r="P18">
+        <v>0.03188729809316786</v>
+      </c>
+      <c r="Q18">
+        <v>0.5226242199023333</v>
+      </c>
+      <c r="R18">
+        <v>3.135745319414</v>
+      </c>
+      <c r="S18">
+        <v>0.001095743275955059</v>
+      </c>
+      <c r="T18">
+        <v>0.0008663227347724316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.398791</v>
+      </c>
+      <c r="I19">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J19">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.182591666666666</v>
+      </c>
+      <c r="N19">
+        <v>3.547775</v>
+      </c>
+      <c r="O19">
+        <v>0.04313039993528083</v>
+      </c>
+      <c r="P19">
+        <v>0.05046448405689858</v>
+      </c>
+      <c r="Q19">
+        <v>0.8270992900041666</v>
+      </c>
+      <c r="R19">
+        <v>4.962595740025</v>
+      </c>
+      <c r="S19">
+        <v>0.0017341111472764</v>
+      </c>
+      <c r="T19">
+        <v>0.00137103274505466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.398791</v>
+      </c>
+      <c r="I20">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J20">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.9545335</v>
+      </c>
+      <c r="N20">
+        <v>23.909067</v>
+      </c>
+      <c r="O20">
+        <v>0.4359947946767024</v>
+      </c>
+      <c r="P20">
+        <v>0.3400888529957002</v>
+      </c>
+      <c r="Q20">
+        <v>8.360946934499252</v>
+      </c>
+      <c r="R20">
+        <v>33.44378773799701</v>
+      </c>
+      <c r="S20">
+        <v>0.01752971070840667</v>
+      </c>
+      <c r="T20">
+        <v>0.009239625895302207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.398791</v>
+      </c>
+      <c r="I21">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J21">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5368526666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.610558</v>
+      </c>
+      <c r="O21">
+        <v>0.01957959866647858</v>
+      </c>
+      <c r="P21">
+        <v>0.022909000292778</v>
+      </c>
+      <c r="Q21">
+        <v>0.3754723392296667</v>
+      </c>
+      <c r="R21">
+        <v>2.252834035378</v>
+      </c>
+      <c r="S21">
+        <v>0.0007872220141173508</v>
+      </c>
+      <c r="T21">
+        <v>0.0006223979130045573</v>
       </c>
     </row>
   </sheetData>
